--- a/테스트시나리오.xlsx
+++ b/테스트시나리오.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="C2fGuFOdzNfB8THxKA8plI/XRFCxBPb+LGtiWu9EImk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="OvUS+KrBp+gBY/ViVu9Iy++N22kWMt2m8VRA6tuIqyQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -118,7 +118,7 @@
     <t>기본 질문 처리</t>
   </si>
   <si>
-    <t>"회사 정책에 대한 정보를 알려줘"</t>
+    <t>"삼성이 개발한 생성형 AI는"</t>
   </si>
   <si>
     <t>Chatbot이 내부 문서에서 정보를 찾아 응답</t>
@@ -185,33 +185,6 @@
   </si>
   <si>
     <t>접근 불가, 로그인 페이지로 리다이렉트</t>
-  </si>
-  <si>
-    <t>XSS 공격 방어 테스트</t>
-  </si>
-  <si>
-    <t>스크립트 코드 삽입 시도</t>
-  </si>
-  <si>
-    <t>입력이 무효화되고 경고 메시지 표시</t>
-  </si>
-  <si>
-    <t>CSRF 방어 테스트</t>
-  </si>
-  <si>
-    <t>위조된 요청 시도</t>
-  </si>
-  <si>
-    <t>요청 차단 및 에러 메시지 반환</t>
-  </si>
-  <si>
-    <t>비정상적 트래픽 차단</t>
-  </si>
-  <si>
-    <t>과도한 API 호출</t>
-  </si>
-  <si>
-    <t>IP 차단 또는 요청 제한 메시지 반환</t>
   </si>
   <si>
     <t>마일스톤</t>
@@ -293,7 +266,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -336,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -347,10 +319,13 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -979,7 +954,7 @@
       <c r="D12" s="4">
         <v>4.1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1250,21 +1225,11 @@
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1285,21 +1250,11 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1320,21 +1275,11 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -25727,81 +25672,6 @@
       <c r="U997" s="1"/>
       <c r="V997" s="1"/>
       <c r="W997" s="1"/>
-    </row>
-    <row r="998" ht="16.5" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-    </row>
-    <row r="999" ht="16.5" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-    </row>
-    <row r="1000" ht="16.5" customHeight="1">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -25828,102 +25698,102 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="27.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="5" ht="27.75" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" ht="27.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" ht="27.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" ht="27.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" ht="27.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" ht="27.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" ht="27.75" customHeight="1"/>
